--- a/TP2/Ej1/Mediciones No inversor/Zin/Caso2.xlsx
+++ b/TP2/Ej1/Mediciones No inversor/Zin/Caso2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\GitHub\TC\TP2\Ej1\Mediciones No inversor\Zin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E008B5-792E-4E88-BEAE-0DBAB206B48B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0C2460-B281-4673-B7D9-0729046A3AA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6CF581D6-CAA5-4D3F-812B-1359DCCFB1C9}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +415,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-14.1</v>
+        <v>38024.303120602846</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -426,7 +426,7 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>-14.2</v>
+        <v>38464.603799352379</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -437,7 +437,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>-14.2</v>
+        <v>38464.603799352379</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -448,7 +448,7 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-14.1</v>
+        <v>38024.303120602846</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -459,7 +459,7 @@
         <v>12000</v>
       </c>
       <c r="B6">
-        <v>-14</v>
+        <v>37589.042522045507</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -470,7 +470,7 @@
         <v>15000</v>
       </c>
       <c r="B7">
-        <v>-13.9</v>
+        <v>37158.764310359351</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -481,7 +481,7 @@
         <v>20000</v>
       </c>
       <c r="B8">
-        <v>-13.6</v>
+        <v>35897.2569241979</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -492,7 +492,7 @@
         <v>30000</v>
       </c>
       <c r="B9">
-        <v>-12.7</v>
+        <v>32363.930762082487</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -503,7 +503,7 @@
         <v>40000</v>
       </c>
       <c r="B10">
-        <v>-12</v>
+        <v>29858.037791512339</v>
       </c>
       <c r="C10">
         <v>27</v>
@@ -514,7 +514,7 @@
         <v>50000</v>
       </c>
       <c r="B11">
-        <v>-11.2</v>
+        <v>27230.854107757652</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -525,7 +525,7 @@
         <v>60000</v>
       </c>
       <c r="B12">
-        <v>-10.5</v>
+        <v>25122.407936837131</v>
       </c>
       <c r="C12">
         <v>36</v>
@@ -536,7 +536,7 @@
         <v>70000</v>
       </c>
       <c r="B13">
-        <v>-9.6999999999999993</v>
+        <v>22911.908349116409</v>
       </c>
       <c r="C13">
         <v>39</v>
@@ -547,7 +547,7 @@
         <v>80000</v>
       </c>
       <c r="B14">
-        <v>-9</v>
+        <v>21137.871984483427</v>
       </c>
       <c r="C14">
         <v>40</v>
@@ -558,7 +558,7 @@
         <v>90000</v>
       </c>
       <c r="B15">
-        <v>-8.4</v>
+        <v>19727.009939215426</v>
       </c>
       <c r="C15">
         <v>41</v>
@@ -569,7 +569,7 @@
         <v>100000</v>
       </c>
       <c r="B16">
-        <v>-7.8</v>
+        <v>18410.316867637728</v>
       </c>
       <c r="C16">
         <v>41</v>
@@ -580,7 +580,7 @@
         <v>110000</v>
       </c>
       <c r="B17">
-        <v>-7.3</v>
+        <v>17380.459874763623</v>
       </c>
       <c r="C17">
         <v>42</v>
@@ -591,7 +591,7 @@
         <v>120000</v>
       </c>
       <c r="B18">
-        <v>-6.8</v>
+        <v>16408.212179621652</v>
       </c>
       <c r="C18">
         <v>41</v>
@@ -602,7 +602,7 @@
         <v>150000</v>
       </c>
       <c r="B19">
-        <v>-5.5</v>
+        <v>14127.368171173519</v>
       </c>
       <c r="C19">
         <v>41</v>
@@ -613,7 +613,7 @@
         <v>200000</v>
       </c>
       <c r="B20">
-        <v>-4</v>
+        <v>11886.698943458372</v>
       </c>
       <c r="C20">
         <v>37</v>
@@ -624,7 +624,7 @@
         <v>220000</v>
       </c>
       <c r="B21">
-        <v>-3.6</v>
+        <v>11351.709363271562</v>
       </c>
       <c r="C21">
         <v>36</v>
@@ -635,7 +635,7 @@
         <v>300000</v>
       </c>
       <c r="B22">
-        <v>-2.2999999999999998</v>
+        <v>9773.7508383922541</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -646,7 +646,7 @@
         <v>400000</v>
       </c>
       <c r="B23">
-        <v>-1.6</v>
+        <v>9016.9832596306078</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -657,7 +657,7 @@
         <v>500000</v>
       </c>
       <c r="B24">
-        <v>-1.1000000000000001</v>
+        <v>8512.5811175423587</v>
       </c>
       <c r="C24">
         <v>20</v>
